--- a/Controller_Correct.xlsx
+++ b/Controller_Correct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Academics\Semester 4\COL216\Assignments\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreshth Tuli\Desktop\COL216 Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{89868AE1-2457-4CF1-A729-F9C334719CCF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="117">
   <si>
     <t>fetch</t>
   </si>
@@ -338,9 +339,6 @@
     <t>Wb: writebacks result in RF</t>
   </si>
   <si>
-    <t>Dp : performs DP operation</t>
-  </si>
-  <si>
     <t>Dp</t>
   </si>
   <si>
@@ -358,11 +356,35 @@
   <si>
     <t>opc(3) and NOT opc(2)</t>
   </si>
+  <si>
+    <t>fetch : fetches instruction and adds PC, 4 to RES</t>
+  </si>
+  <si>
+    <t>rdAB : reads operands from RF and updates PC</t>
+  </si>
+  <si>
+    <t>shift : reads shift input from B and amount from RD2 and stores in O</t>
+  </si>
+  <si>
+    <t>Dp : performs DP operation, second operand from O</t>
+  </si>
+  <si>
+    <t>ADDED SIGNALS:</t>
+  </si>
+  <si>
+    <t>branch : for bl instructions</t>
+  </si>
+  <si>
+    <t>shift : for shift input</t>
+  </si>
+  <si>
+    <t>OW : for shift Output registe O</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2082,14 +2104,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
@@ -2100,6 +2114,14 @@
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2107,7 +2129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -8847,11 +8869,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A19:B19"/>
@@ -8864,13 +8881,18 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -10089,33 +10111,33 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10169,7 +10191,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
@@ -10372,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>42</v>
@@ -10487,7 +10509,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>85</v>
@@ -10541,7 +10563,7 @@
         <v>42</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>48</v>
@@ -11307,11 +11329,10 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -11350,18 +11371,17 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>103</v>
+      <c r="K18" t="s">
+        <v>109</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -11398,18 +11418,17 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>75</v>
+      <c r="K19" t="s">
+        <v>110</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -11446,18 +11465,17 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>97</v>
+      <c r="K20" t="s">
+        <v>111</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -11485,7 +11503,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -11495,13 +11513,12 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -11545,13 +11562,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -11593,17 +11609,16 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -11643,7 +11658,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -11691,7 +11706,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -11699,7 +11714,6 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -11739,7 +11753,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -11747,7 +11761,9 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -11786,13 +11802,18 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -11831,14 +11852,18 @@
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -11877,14 +11902,18 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -13722,6 +13751,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
@@ -13730,13 +13766,6 @@
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
